--- a/degerli_madenler.xlsx
+++ b/degerli_madenler.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koray\Desktop\degerli_madenler_raporu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F5D84E-61C2-4EDA-9DF4-D59DFAE471F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DCC46D-C93D-42FD-B853-73E2F9EF0923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BİLGİLENDİRME" sheetId="2" r:id="rId1"/>
     <sheet name="DEĞERLİ MADENLER" sheetId="1" r:id="rId2"/>
     <sheet name="KORELASYON" sheetId="4" r:id="rId3"/>
-    <sheet name="DASHBOARD" sheetId="3" r:id="rId4"/>
+    <sheet name="DASHBOARD $" sheetId="3" r:id="rId4"/>
+    <sheet name="DASHBOARD %" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DEĞERLİ MADENLER'!$A$2:$A$50</definedName>
@@ -1529,7 +1530,7 @@
                   <c:v>2623.82</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4250.8999999999996</c:v>
+                  <c:v>4118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1868,7 +1869,7 @@
                   <c:v>2889</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5186</c:v>
+                  <c:v>4921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2207,7 +2208,7 @@
                   <c:v>910.16</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1611.71</c:v>
+                  <c:v>1661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2498,7 +2499,7 @@
                   <c:v>910.52</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1468.19</c:v>
+                  <c:v>1465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2742,10 +2743,1614 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="tr-TR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="tr-TR"/>
+              <a:t>YÜZDELİK DEĞERLER</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="tr-TR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>GOLD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'DEĞERLİ MADENLER'!$A$3:$A$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2026</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DEĞERLİ MADENLER'!$C$3:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>3.8755555555555474E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.3244908437446517</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14137319483151764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.15427302996670367</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.20393700787401572</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8140454995054356E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22782874617737003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19352428393524282</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.14273789649415689</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.726387536514116E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.6516516516516571E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.10407124681933837</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-5.4813973303038936E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.18299278846153838</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.5814071628143172E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.107481559536354E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-5.6501547987616182E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.22996992070002725</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0951704545454464E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7391304347826088E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-5.3993055555555593E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.2939988988805286E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.24793684965913176</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.1949396204715354</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.3897978825793974E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.1713470319634702</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.24013254068804221</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.30970530451866396</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.6606264250570117E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.24518722954785499</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.29470515802435371</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.105125224558808</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.800028049239154E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.28050425585254329</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.927990708478514E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.10232117479867364</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.5082924990576667E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.13119523400116365</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.5592371944478524E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.18362253850653151</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.25062265269816159</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-3.6916446706391194E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-2.4452954048140192E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.13114673188815093</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.27204413675412586</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.5694674177344482</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E10F-4542-8CE3-B324C275546F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SILVER</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'DEĞERLİ MADENLER'!$A$3:$A$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2026</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DEĞERLİ MADENLER'!$G$3:$G$48</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>-0.58543046357615902</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.48753993610223645</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36533665835411472</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.21643835616438351</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.28321678321678317</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.829268292682926E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.06108202443281E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1985294117647057</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.9018404907975353E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.14168039538714997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.20729366602687141</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-6.5375302663438259E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-5.699481865284968E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.40109890109890095</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-7.2549019607842991E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.14164904862579278</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.12037037037037043</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.24631578947368418</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.16891891891891891</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.7560975609756184E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.14814814814814828</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1739130434784079E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.4707158351409813E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24318658280922437</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.14502529510961221</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.29749631811487487</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.46083995459704863</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.14763014763014767</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.2301963439404198</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.48109058927000886</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.83254156769596199</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-9.8185353208036327E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.9471793029105365E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.35850923482849606</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.19434447300771204</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.11678366305041481</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.1473988439306359</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.4861460957178804E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-8.5748078060319297E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.15459249676584738</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.47619047619047616</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.11650853889943075</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.8780068728522255E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-7.5156576200417421E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.21539755994951623</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.70335756317064724</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E10F-4542-8CE3-B324C275546F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>PLATINUM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'DEĞERLİ MADENLER'!$A$3:$A$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2026</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DEĞERLİ MADENLER'!$J$3:$J$48</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>-0.15292001107113201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.36693350759679794</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0774193548387128E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.8432928341185224E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.28004125838060862</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24283667621776509</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37579250720461088</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2576455802262306E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9154228855721481E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-8.5356600910470509E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.14247200331812523</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-6.0217654171704903E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-9.2382913021101479E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13410830734335133</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.63549999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8004115226337447</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-9.110947832476117E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.3742926434923261E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-9.562841530054645E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.22896551724137931</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.36363636363636365</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.21152263374485597</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.24843423799582465</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.35451505016722407</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.7407407407407407E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.1290134267367192</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.17425025853154086</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.34125935711140465</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.38903479973736049</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.57549704459967754</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.20583219645293316</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.21414227124876253</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.10711200691045203</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.11167100130039012</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.11846294602012802</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.26394885420126207</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.6920473773265651E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.2723239046034386E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.14930182599355532</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.22125000000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.10831963441994147</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-9.9813432835820892E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.10673575129533679</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-7.3033707865168537E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-8.0646464646464674E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.82495385426738166</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E10F-4542-8CE3-B324C275546F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>PALLADIUM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'DEĞERLİ MADENLER'!$A$3:$A$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2026</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DEĞERLİ MADENLER'!$M$3:$M$48</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="17">
+                  <c:v>1.7336683417085368E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.66460854531983216</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.31750741839762614</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1384009009009011</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.54499973668966251</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.46759259259259262</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.18260869565217391</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.9255319148936171E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.37808219178082192</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.32007952286282304</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.10391566265060241</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.49386084583901774</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1832884097035041</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.96851851851851856</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.18408278457196611</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.3805900167565969E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.1832498210450968E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.11369527145359017</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.29462825512643093</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.21276975209559471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.56617647058823528</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.18826291079812207</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.5377084156459897</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.2662065705021146</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.2278814935064935</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-5.3613666228646516E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.38822549291863373</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.17338175215615073</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.60897069806264559</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E10F-4542-8CE3-B324C275546F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="315"/>
+        <c:overlap val="-40"/>
+        <c:axId val="552092424"/>
+        <c:axId val="552082704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="552092424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="552082704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="552082704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="552092424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="tr-TR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="tr-TR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -3328,18 +4933,567 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>52830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>1524</xdr:rowOff>
     </xdr:to>
@@ -3349,6 +5503,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66DA942C-1D57-DA8D-53E7-DFB6F0C78E4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>134112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>56388</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67F7B5FF-B338-16AE-E363-370629E7FE2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3634,8 +5829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{975DBC5D-71AD-4154-8117-8C839E9319FD}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3657,7 +5852,7 @@
         <v>79</v>
       </c>
       <c r="B2" s="13">
-        <v>45947</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -3706,9 +5901,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C55" sqref="C55"/>
+    <sheetView topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L50" sqref="L50:N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5875,7 +8070,7 @@
       </c>
       <c r="C48" s="5">
         <f t="shared" si="1"/>
-        <v>0.62011875814651896</v>
+        <v>0.5694674177344482</v>
       </c>
       <c r="D48" t="s">
         <v>147</v>
@@ -5889,7 +8084,7 @@
       </c>
       <c r="G48" s="5">
         <f t="shared" si="0"/>
-        <v>0.79508480443059881</v>
+        <v>0.70335756317064724</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>147</v>
@@ -5899,7 +8094,7 @@
       </c>
       <c r="J48" s="5">
         <f t="shared" si="3"/>
-        <v>0.77079854091588307</v>
+        <v>0.82495385426738166</v>
       </c>
       <c r="K48" s="8" t="s">
         <v>147</v>
@@ -5909,7 +8104,7 @@
       </c>
       <c r="M48" s="5">
         <f t="shared" si="4"/>
-        <v>0.61247419057242025</v>
+        <v>0.60897069806264559</v>
       </c>
       <c r="N48" s="8" t="s">
         <v>147</v>
@@ -5920,32 +8115,32 @@
         <v>2026</v>
       </c>
       <c r="B49" s="4">
-        <v>4250.8999999999996</v>
+        <v>4118</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="8" t="s">
         <v>147</v>
       </c>
       <c r="E49" s="4">
-        <v>51.86</v>
+        <v>49.21</v>
       </c>
       <c r="F49" s="4">
         <f t="shared" ref="F49" si="5">E49*100</f>
-        <v>5186</v>
+        <v>4921</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="7" t="s">
         <v>147</v>
       </c>
       <c r="I49" s="4">
-        <v>1611.71</v>
+        <v>1661</v>
       </c>
       <c r="J49" s="5"/>
       <c r="K49" s="8" t="s">
         <v>147</v>
       </c>
       <c r="L49" s="4">
-        <v>1468.19</v>
+        <v>1465</v>
       </c>
       <c r="M49" s="5"/>
       <c r="N49" s="8" t="s">
@@ -5958,26 +8153,26 @@
       </c>
       <c r="B50" s="31">
         <f>(B49-B3)/B3</f>
-        <v>6.5571555555555552</v>
+        <v>6.3208888888888888</v>
       </c>
       <c r="C50" s="32"/>
       <c r="D50" s="33"/>
       <c r="E50" s="4"/>
       <c r="F50" s="31">
         <f>(E49-E3)/E3</f>
-        <v>0.37377483443708609</v>
+        <v>0.30357615894039736</v>
       </c>
       <c r="G50" s="32"/>
       <c r="H50" s="33"/>
       <c r="I50" s="31">
         <f>(I49-I3)/I3</f>
-        <v>1.2304317741489068</v>
+        <v>1.2986437863271518</v>
       </c>
       <c r="J50" s="32"/>
       <c r="K50" s="33"/>
       <c r="L50" s="31">
         <f>(L49-L20)/L20</f>
-        <v>6.3778391959798997</v>
+        <v>6.3618090452261304</v>
       </c>
       <c r="M50" s="32"/>
       <c r="N50" s="33"/>
@@ -6083,7 +8278,7 @@
       </c>
       <c r="B2" s="17">
         <f>CORREL('DEĞERLİ MADENLER'!C3:C48,'DEĞERLİ MADENLER'!G3:G48)</f>
-        <v>0.7411366341641229</v>
+        <v>0.73084915146916818</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -6092,7 +8287,7 @@
       </c>
       <c r="B3" s="17">
         <f>CORREL('DEĞERLİ MADENLER'!C3:C48,'DEĞERLİ MADENLER'!J3:J48)</f>
-        <v>0.43393890892093812</v>
+        <v>0.43689675395054595</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -6101,7 +8296,7 @@
       </c>
       <c r="B4" s="17">
         <f>CORREL('DEĞERLİ MADENLER'!C3:C48,'DEĞERLİ MADENLER'!M3:M48)</f>
-        <v>0.25182999063845718</v>
+        <v>0.24833216862330318</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -6110,7 +8305,7 @@
       </c>
       <c r="B5" s="17">
         <f>CORREL('DEĞERLİ MADENLER'!G3:G48,'DEĞERLİ MADENLER'!J3:J48)</f>
-        <v>0.47409723545424703</v>
+        <v>0.47310381299415255</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -6119,7 +8314,7 @@
       </c>
       <c r="B6" s="17">
         <f>CORREL('DEĞERLİ MADENLER'!G3:G48,'DEĞERLİ MADENLER'!M3:M48)</f>
-        <v>0.45305516537609203</v>
+        <v>0.45309522981040656</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -6128,7 +8323,7 @@
       </c>
       <c r="B7" s="17">
         <f>CORREL('DEĞERLİ MADENLER'!J3:J48,'DEĞERLİ MADENLER'!M3:M48)</f>
-        <v>0.62213692382918107</v>
+        <v>0.61576446717126776</v>
       </c>
     </row>
   </sheetData>
@@ -6140,7 +8335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3612BC7-F0E2-492F-8F6C-2E9D7099E0BB}">
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:Z29"/>
     </sheetView>
   </sheetViews>
@@ -6965,4 +9160,835 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8021624E-3CF2-400A-A296-A3599CF45428}">
+  <dimension ref="A1:Z29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Z29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="40"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="40"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="40"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="40"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="40"/>
+      <c r="X28" s="40"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="40"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="40"/>
+      <c r="W29" s="40"/>
+      <c r="X29" s="40"/>
+      <c r="Y29" s="40"/>
+      <c r="Z29" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:Z29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/degerli_madenler.xlsx
+++ b/degerli_madenler.xlsx
@@ -2,15 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileSharing readOnlyRecommended="1"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koray\Desktop\degerli_madenler_raporu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koray\Desktop\Proje\degerli_madenler_raporu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DCC46D-C93D-42FD-B853-73E2F9EF0923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6C607A-C52F-4575-9059-53B47B9AAA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BİLGİLENDİRME" sheetId="2" r:id="rId1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="152">
   <si>
     <t>YIL</t>
   </si>
@@ -268,15 +269,9 @@
     <t>GOLD US$/OZ</t>
   </si>
   <si>
-    <t>NOT</t>
-  </si>
-  <si>
     <t>GÜNCELLENME TARİHİ</t>
   </si>
   <si>
-    <t>2025-2026 VERİLERİ AKTİF GÜNE GÖRE GÜNCELLENMEKTEDİR</t>
-  </si>
-  <si>
     <t>DASHBOARD SAYFASINDAN KARŞILAŞTIRMAYI GRAFİK HALİNDE YAPABİLİRSİNİZ.</t>
   </si>
   <si>
@@ -482,6 +477,18 @@
   </si>
   <si>
     <t>GRAFİKLERDE FİYAT DÜZENEĞİ İÇİN GÜMÜŞ FİYATINA *100 ÇARPAN UYGULANMIŞTIR!</t>
+  </si>
+  <si>
+    <t>Yükseliş – Güçlü boğa yılı, güvenli liman talebi arttı.</t>
+  </si>
+  <si>
+    <t>Yükseliş – Endüstriyel talep ve doların zayıflığı destekledi.</t>
+  </si>
+  <si>
+    <t>Hafif Yükseliş – Sanayi talebi ve arz kısıtları destekledi.</t>
+  </si>
+  <si>
+    <t>Karışık – İlk yarıda düşüş, yıl sonunda toparlanma. Otomotiv talebi zayıf ama arz sıkıntısı destekledi.</t>
   </si>
 </sst>
 </file>
@@ -668,7 +675,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -732,36 +739,6 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -843,7 +820,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -872,38 +849,36 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1530,7 +1505,7 @@
                   <c:v>2623.82</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4118</c:v>
+                  <c:v>4318.2700000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1869,7 +1844,7 @@
                   <c:v>2889</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4921</c:v>
+                  <c:v>7239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2208,7 +2183,7 @@
                   <c:v>910.16</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1661</c:v>
+                  <c:v>2093.2800000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2499,7 +2474,7 @@
                   <c:v>910.52</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1465</c:v>
+                  <c:v>1639.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3133,7 +3108,7 @@
                   <c:v>0.27204413675412586</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.5694674177344482</c:v>
+                  <c:v>0.64579506216127636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3460,7 +3435,7 @@
                   <c:v>0.21539755994951623</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.70335756317064724</c:v>
+                  <c:v>1.505711318795431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3787,7 +3762,7 @@
                   <c:v>-8.0646464646464674E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.82495385426738166</c:v>
+                  <c:v>1.2999033137030855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4063,7 +4038,7 @@
                   <c:v>-0.17338175215615073</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.60897069806264559</c:v>
+                  <c:v>0.8001252031806001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5827,10 +5802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{975DBC5D-71AD-4154-8117-8C839E9319FD}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5843,55 +5818,47 @@
       <c r="A1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="11">
+        <v>46026</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A2" s="12" t="s">
+      <c r="B2" s="17"/>
+    </row>
+    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="13">
-        <v>45953</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>82</v>
-      </c>
       <c r="B3" s="19"/>
     </row>
-    <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="20" t="s">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="B4" s="21"/>
     </row>
-    <row r="5" spans="1:2" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B5" s="23"/>
     </row>
-    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.4">
       <c r="A6" s="24" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B6" s="25"/>
-    </row>
-    <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A7" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="B7" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5901,9 +5868,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L50" sqref="L50:N50"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5926,27 +5893,27 @@
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="M1" s="29"/>
-      <c r="N1" s="30"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="27"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" s="27"/>
+      <c r="N1" s="28"/>
     </row>
     <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6028,7 +5995,7 @@
         <v>-0.15292001107113201</v>
       </c>
       <c r="K3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="5"/>
@@ -6151,7 +6118,7 @@
         <v>-3.8432928341185224E-2</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="5"/>
@@ -6274,7 +6241,7 @@
         <v>0.37579250720461088</v>
       </c>
       <c r="K9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="5"/>
@@ -6520,7 +6487,7 @@
         <v>-9.2382913021101479E-2</v>
       </c>
       <c r="K15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="5"/>
@@ -6561,7 +6528,7 @@
         <v>0.13410830734335133</v>
       </c>
       <c r="K16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="5"/>
@@ -6684,7 +6651,7 @@
         <v>-9.110947832476117E-2</v>
       </c>
       <c r="K19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="5"/>
@@ -6725,7 +6692,7 @@
         <v>-1.3742926434923261E-2</v>
       </c>
       <c r="K20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L20" s="4">
         <v>199</v>
@@ -6735,7 +6702,7 @@
         <v>1.7336683417085368E-2</v>
       </c>
       <c r="N20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -6823,7 +6790,7 @@
         <v>0.22896551724137931</v>
       </c>
       <c r="K22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L22" s="4">
         <v>337</v>
@@ -6833,7 +6800,7 @@
         <v>0.31750741839762614</v>
       </c>
       <c r="N22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -6872,7 +6839,7 @@
         <v>0.36363636363636365</v>
       </c>
       <c r="K23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L23" s="4">
         <v>444</v>
@@ -6882,7 +6849,7 @@
         <v>1.1384009009009011</v>
       </c>
       <c r="N23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -6931,7 +6898,7 @@
         <v>-0.54499973668966251</v>
       </c>
       <c r="N24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -6980,7 +6947,7 @@
         <v>-0.46759259259259262</v>
       </c>
       <c r="N25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -7019,7 +6986,7 @@
         <v>0.35451505016722407</v>
       </c>
       <c r="K26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L26" s="4">
         <v>230</v>
@@ -7029,7 +6996,7 @@
         <v>-0.18260869565217391</v>
       </c>
       <c r="N26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -7068,7 +7035,7 @@
         <v>5.7407407407407407E-2</v>
       </c>
       <c r="K27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L27" s="4">
         <v>188</v>
@@ -7117,7 +7084,7 @@
         <v>0.1290134267367192</v>
       </c>
       <c r="K28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L28" s="4">
         <v>182.5</v>
@@ -7127,7 +7094,7 @@
         <v>0.37808219178082192</v>
       </c>
       <c r="N28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -7166,7 +7133,7 @@
         <v>0.17425025853154086</v>
       </c>
       <c r="K29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L29" s="4">
         <v>251.5</v>
@@ -7176,7 +7143,7 @@
         <v>0.32007952286282304</v>
       </c>
       <c r="N29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -7215,7 +7182,7 @@
         <v>0.34125935711140465</v>
       </c>
       <c r="K30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L30" s="4">
         <v>332</v>
@@ -7225,7 +7192,7 @@
         <v>0.10391566265060241</v>
       </c>
       <c r="N30" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -7264,7 +7231,7 @@
         <v>-0.38903479973736049</v>
       </c>
       <c r="K31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L31" s="4">
         <v>366.5</v>
@@ -7274,7 +7241,7 @@
         <v>-0.49386084583901774</v>
       </c>
       <c r="N31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -7313,7 +7280,7 @@
         <v>0.57549704459967754</v>
       </c>
       <c r="K32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L32" s="4">
         <v>185.5</v>
@@ -7323,7 +7290,7 @@
         <v>1.1832884097035041</v>
       </c>
       <c r="N32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -7362,7 +7329,7 @@
         <v>0.20583219645293316</v>
       </c>
       <c r="K33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L33" s="4">
         <v>405</v>
@@ -7372,7 +7339,7 @@
         <v>0.96851851851851856</v>
       </c>
       <c r="N33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -7411,7 +7378,7 @@
         <v>-0.21414227124876253</v>
       </c>
       <c r="K34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L34" s="4">
         <v>797.25</v>
@@ -7421,7 +7388,7 @@
         <v>-0.18408278457196611</v>
       </c>
       <c r="N34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -7460,7 +7427,7 @@
         <v>0.10711200691045203</v>
       </c>
       <c r="K35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L35" s="4">
         <v>650.49</v>
@@ -7470,7 +7437,7 @@
         <v>7.3805900167565969E-2</v>
       </c>
       <c r="N35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -7509,7 +7476,7 @@
         <v>-0.11167100130039012</v>
       </c>
       <c r="K36" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L36" s="6">
         <v>698.5</v>
@@ -7519,7 +7486,7 @@
         <v>2.1832498210450968E-2</v>
       </c>
       <c r="N36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -7558,7 +7525,7 @@
         <v>-0.11846294602012802</v>
       </c>
       <c r="K37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L37" s="4">
         <v>713.75</v>
@@ -7568,7 +7535,7 @@
         <v>0.11369527145359017</v>
       </c>
       <c r="N37" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -7607,7 +7574,7 @@
         <v>-0.26394885420126207</v>
       </c>
       <c r="K38" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L38" s="4">
         <v>794.9</v>
@@ -7617,7 +7584,7 @@
         <v>-0.29462825512643093</v>
       </c>
       <c r="N38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -7656,7 +7623,7 @@
         <v>1.6920473773265651E-2</v>
       </c>
       <c r="K39" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L39" s="4">
         <v>560.70000000000005</v>
@@ -7666,7 +7633,7 @@
         <v>0.21276975209559471</v>
       </c>
       <c r="N39" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -7705,7 +7672,7 @@
         <v>3.2723239046034386E-2</v>
       </c>
       <c r="K40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L40" s="4">
         <v>680</v>
@@ -7715,7 +7682,7 @@
         <v>0.56617647058823528</v>
       </c>
       <c r="N40" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -7754,7 +7721,7 @@
         <v>-0.14930182599355532</v>
       </c>
       <c r="K41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L41" s="4">
         <v>1065</v>
@@ -7764,7 +7731,7 @@
         <v>0.18826291079812207</v>
       </c>
       <c r="N41" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -7803,7 +7770,7 @@
         <v>0.22125000000000003</v>
       </c>
       <c r="K42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L42" s="4">
         <v>1265.5</v>
@@ -7813,7 +7780,7 @@
         <v>0.5377084156459897</v>
       </c>
       <c r="N42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -7852,7 +7819,7 @@
         <v>0.10831963441994147</v>
       </c>
       <c r="K43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L43" s="4">
         <v>1945.97</v>
@@ -7862,7 +7829,7 @@
         <v>0.2662065705021146</v>
       </c>
       <c r="N43" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -7901,7 +7868,7 @@
         <v>-9.9813432835820892E-2</v>
       </c>
       <c r="K44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L44" s="4">
         <v>2464</v>
@@ -7911,7 +7878,7 @@
         <v>-0.2278814935064935</v>
       </c>
       <c r="N44" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -7950,7 +7917,7 @@
         <v>0.10673575129533679</v>
       </c>
       <c r="K45" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L45" s="4">
         <v>1902.5</v>
@@ -7960,7 +7927,7 @@
         <v>-5.3613666228646516E-2</v>
       </c>
       <c r="N45" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -7999,7 +7966,7 @@
         <v>-7.3033707865168537E-2</v>
       </c>
       <c r="K46" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L46" s="4">
         <v>1800.5</v>
@@ -8009,7 +7976,7 @@
         <v>-0.38822549291863373</v>
       </c>
       <c r="N46" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -8048,7 +8015,7 @@
         <v>-8.0646464646464674E-2</v>
       </c>
       <c r="K47" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L47" s="4">
         <v>1101.5</v>
@@ -8058,10 +8025,10 @@
         <v>-0.17338175215615073</v>
       </c>
       <c r="N47" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>2025</v>
       </c>
@@ -8070,10 +8037,10 @@
       </c>
       <c r="C48" s="5">
         <f t="shared" si="1"/>
-        <v>0.5694674177344482</v>
+        <v>0.64579506216127636</v>
       </c>
       <c r="D48" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E48" s="4">
         <v>28.89</v>
@@ -8084,30 +8051,30 @@
       </c>
       <c r="G48" s="5">
         <f t="shared" si="0"/>
-        <v>0.70335756317064724</v>
+        <v>1.505711318795431</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I48" s="4">
         <v>910.16</v>
       </c>
       <c r="J48" s="5">
         <f t="shared" si="3"/>
-        <v>0.82495385426738166</v>
+        <v>1.2999033137030855</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L48" s="4">
         <v>910.52</v>
       </c>
       <c r="M48" s="5">
         <f t="shared" si="4"/>
-        <v>0.60897069806264559</v>
+        <v>0.8001252031806001</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -8115,67 +8082,67 @@
         <v>2026</v>
       </c>
       <c r="B49" s="4">
-        <v>4118</v>
+        <v>4318.2700000000004</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E49" s="4">
-        <v>49.21</v>
+        <v>72.39</v>
       </c>
       <c r="F49" s="4">
         <f t="shared" ref="F49" si="5">E49*100</f>
-        <v>4921</v>
+        <v>7239</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I49" s="4">
-        <v>1661</v>
+        <v>2093.2800000000002</v>
       </c>
       <c r="J49" s="5"/>
       <c r="K49" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L49" s="4">
-        <v>1465</v>
+        <v>1639.05</v>
       </c>
       <c r="M49" s="5"/>
       <c r="N49" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50" s="31">
+      <c r="A50" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="29">
         <f>(B49-B3)/B3</f>
-        <v>6.3208888888888888</v>
-      </c>
-      <c r="C50" s="32"/>
-      <c r="D50" s="33"/>
+        <v>6.6769244444444453</v>
+      </c>
+      <c r="C50" s="30"/>
+      <c r="D50" s="31"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="31">
+      <c r="F50" s="29">
         <f>(E49-E3)/E3</f>
-        <v>0.30357615894039736</v>
-      </c>
-      <c r="G50" s="32"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="31">
+        <v>0.91761589403973509</v>
+      </c>
+      <c r="G50" s="30"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="29">
         <f>(I49-I3)/I3</f>
-        <v>1.2986437863271518</v>
-      </c>
-      <c r="J50" s="32"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="31">
+        <v>1.8968724052034325</v>
+      </c>
+      <c r="J50" s="30"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="29">
         <f>(L49-L20)/L20</f>
-        <v>6.3618090452261304</v>
-      </c>
-      <c r="M50" s="32"/>
-      <c r="N50" s="33"/>
+        <v>7.2364321608040196</v>
+      </c>
+      <c r="M50" s="30"/>
+      <c r="N50" s="31"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:A50" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -8265,65 +8232,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="15">
+        <f>CORREL('DEĞERLİ MADENLER'!C3:C48,'DEĞERLİ MADENLER'!G3:G48)</f>
+        <v>0.77476860127687686</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="B3" s="15">
+        <f>CORREL('DEĞERLİ MADENLER'!C3:C48,'DEĞERLİ MADENLER'!J3:J48)</f>
+        <v>0.50097578533298281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="17">
-        <f>CORREL('DEĞERLİ MADENLER'!C3:C48,'DEĞERLİ MADENLER'!G3:G48)</f>
-        <v>0.73084915146916818</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="B4" s="15">
+        <f>CORREL('DEĞERLİ MADENLER'!C3:C48,'DEĞERLİ MADENLER'!M3:M48)</f>
+        <v>0.29147497250241799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="17">
-        <f>CORREL('DEĞERLİ MADENLER'!C3:C48,'DEĞERLİ MADENLER'!J3:J48)</f>
-        <v>0.43689675395054595</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="B5" s="15">
+        <f>CORREL('DEĞERLİ MADENLER'!G3:G48,'DEĞERLİ MADENLER'!J3:J48)</f>
+        <v>0.57637457127508041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="17">
-        <f>CORREL('DEĞERLİ MADENLER'!C3:C48,'DEĞERLİ MADENLER'!M3:M48)</f>
-        <v>0.24833216862330318</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="B6" s="15">
+        <f>CORREL('DEĞERLİ MADENLER'!G3:G48,'DEĞERLİ MADENLER'!M3:M48)</f>
+        <v>0.468283615593027</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="17">
-        <f>CORREL('DEĞERLİ MADENLER'!G3:G48,'DEĞERLİ MADENLER'!J3:J48)</f>
-        <v>0.47310381299415255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6" s="17">
-        <f>CORREL('DEĞERLİ MADENLER'!G3:G48,'DEĞERLİ MADENLER'!M3:M48)</f>
-        <v>0.45309522981040656</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7" s="17">
+      <c r="B7" s="15">
         <f>CORREL('DEĞERLİ MADENLER'!J3:J48,'DEĞERLİ MADENLER'!M3:M48)</f>
-        <v>0.61576446717126776</v>
+        <v>0.60167489572374444</v>
       </c>
     </row>
   </sheetData>
@@ -8342,816 +8309,816 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="40"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="40"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="40"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="40"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="40"/>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="40"/>
-      <c r="Z18" s="40"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="40"/>
-      <c r="X19" s="40"/>
-      <c r="Y19" s="40"/>
-      <c r="Z19" s="40"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="40"/>
-      <c r="Z20" s="40"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="40"/>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="40"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="38"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="40"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="40"/>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="40"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="38"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="40"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="40"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="38"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="40"/>
-      <c r="Z26" s="40"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="40"/>
-      <c r="X27" s="40"/>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="40"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="38"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="40"/>
-      <c r="W28" s="40"/>
-      <c r="X28" s="40"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="40"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="38"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="40"/>
-      <c r="U29" s="40"/>
-      <c r="V29" s="40"/>
-      <c r="W29" s="40"/>
-      <c r="X29" s="40"/>
-      <c r="Y29" s="40"/>
-      <c r="Z29" s="40"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="38"/>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9173,816 +9140,816 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="40"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="40"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="40"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="40"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="40"/>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="40"/>
-      <c r="Z18" s="40"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="40"/>
-      <c r="X19" s="40"/>
-      <c r="Y19" s="40"/>
-      <c r="Z19" s="40"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="40"/>
-      <c r="Z20" s="40"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="40"/>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="40"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="38"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="40"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="40"/>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="40"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="38"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="40"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="40"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="38"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="40"/>
-      <c r="Z26" s="40"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="40"/>
-      <c r="X27" s="40"/>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="40"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="38"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="40"/>
-      <c r="W28" s="40"/>
-      <c r="X28" s="40"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="40"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="38"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="40"/>
-      <c r="U29" s="40"/>
-      <c r="V29" s="40"/>
-      <c r="W29" s="40"/>
-      <c r="X29" s="40"/>
-      <c r="Y29" s="40"/>
-      <c r="Z29" s="40"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="38"/>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
